--- a/Scripts/userlist.xlsx
+++ b/Scripts/userlist.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github-Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Dev/GreenLake/GLP-API-Tooling/Scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93BCC2A-528F-4CB2-AF41-898A6190357C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BD83CC-AD7D-9F4D-A2FE-D10338B29C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{E40EF3DF-78FD-4134-869D-141C534E1F14}"/>
+    <workbookView xWindow="22900" yWindow="-15600" windowWidth="33220" windowHeight="7680" xr2:uid="{E40EF3DF-78FD-4134-869D-141C534E1F14}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Users" sheetId="1" r:id="rId1"/>
+    <sheet name="Workspaces" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,22 +37,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>dung.hoangkhac@hpe.com</t>
-  </si>
-  <si>
-    <t>dungkhoang@gmail.com</t>
-  </si>
-  <si>
-    <t>email</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Workspace Id</t>
+  </si>
+  <si>
+    <t>Workspace Name</t>
+  </si>
+  <si>
+    <t>3009de2825f211ec8a84fedebcb4a754</t>
+  </si>
+  <si>
+    <t>HPEDEV -GLCP- Hackshack</t>
+  </si>
+  <si>
+    <t>5d5c05c2-48c9-4f70-9f8e-b320fd15046f</t>
+  </si>
+  <si>
+    <t>Didier Lalli</t>
+  </si>
+  <si>
+    <t>didier@lalli.fr</t>
+  </si>
+  <si>
+    <t>Client Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Didier   </t>
+  </si>
+  <si>
+    <t>didier.lalli@gmail.com</t>
+  </si>
+  <si>
+    <t>3ab941c8-84f4-480b-939b-7516bffceb4e</t>
+  </si>
+  <si>
+    <t>Super Awesome Company</t>
+  </si>
+  <si>
+    <t>97bc4b705c9e11ee8febda380c5476da</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +108,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,10 +151,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -427,39 +475,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E64F5F3-679F-4D96-9DE0-EC7CC0AA28AD}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="35.83203125" customWidth="1"/>
+    <col min="3" max="3" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{9B9A753C-260C-492A-AC9B-2CBFAB64E8DC}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{2429EA5B-6ECC-45BD-B8F6-F1F06B73CB89}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{9B9A753C-260C-492A-AC9B-2CBFAB64E8DC}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{B091B290-370F-814B-A4D5-2C24B4A89304}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{F0CCE370-28AE-7141-BE87-595BF238F789}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{CA59DD49-63E8-2847-98C5-6FFA4D3E3E03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A069776F-FEC1-1C4A-BF3B-18E18845AB7D}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:3" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:3" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:3" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:3" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:3" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:3" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:3" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:3" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:3" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:3" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="17" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Scripts/userlist.xlsx
+++ b/Scripts/userlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Dev/GreenLake/GLP-API-Tooling/Scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BD83CC-AD7D-9F4D-A2FE-D10338B29C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D3EAAF-CAE3-CB42-9D89-6A8F70D34C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22900" yWindow="-15600" windowWidth="33220" windowHeight="7680" xr2:uid="{E40EF3DF-78FD-4134-869D-141C534E1F14}"/>
+    <workbookView xWindow="22620" yWindow="-15600" windowWidth="33220" windowHeight="7680" activeTab="1" xr2:uid="{E40EF3DF-78FD-4134-869D-141C534E1F14}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -51,37 +51,49 @@
     <t>Workspace Name</t>
   </si>
   <si>
-    <t>3009de2825f211ec8a84fedebcb4a754</t>
-  </si>
-  <si>
-    <t>HPEDEV -GLCP- Hackshack</t>
-  </si>
-  <si>
-    <t>5d5c05c2-48c9-4f70-9f8e-b320fd15046f</t>
-  </si>
-  <si>
-    <t>Didier Lalli</t>
-  </si>
-  <si>
-    <t>didier@lalli.fr</t>
-  </si>
-  <si>
     <t>Client Id</t>
   </si>
   <si>
-    <t xml:space="preserve">Didier   </t>
-  </si>
-  <si>
-    <t>didier.lalli@gmail.com</t>
-  </si>
-  <si>
-    <t>3ab941c8-84f4-480b-939b-7516bffceb4e</t>
-  </si>
-  <si>
-    <t>Super Awesome Company</t>
-  </si>
-  <si>
-    <t>97bc4b705c9e11ee8febda380c5476da</t>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Ringo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georges   </t>
+  </si>
+  <si>
+    <t>rigby@gmail.com</t>
+  </si>
+  <si>
+    <t>letitbe@gmail.com</t>
+  </si>
+  <si>
+    <t>help@gmail.com</t>
+  </si>
+  <si>
+    <t>helterskelter@gmail.com</t>
+  </si>
+  <si>
+    <t>WKS1</t>
+  </si>
+  <si>
+    <t>WKS2</t>
+  </si>
+  <si>
+    <t>3009de2234f211ec8a84fedebcb4a754</t>
+  </si>
+  <si>
+    <t>97bc4b70598761ee8febda380c5476da</t>
+  </si>
+  <si>
+    <t>5d5c05c2-48c9-4f70-9e543-b320fd15046f</t>
+  </si>
+  <si>
+    <t>3ab941c8-84f4-480b-b52-7516bffceb4e</t>
   </si>
 </sst>
 </file>
@@ -179,9 +191,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -219,7 +231,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -325,7 +337,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -467,7 +479,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -477,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E64F5F3-679F-4D96-9DE0-EC7CC0AA28AD}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -501,46 +513,46 @@
     </row>
     <row r="2" spans="1:3" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -623,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A069776F-FEC1-1C4A-BF3B-18E18845AB7D}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -642,29 +654,29 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
